--- a/excel/music_config.xlsx
+++ b/excel/music_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="21000" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -89,10 +89,13 @@
     <t>int</t>
   </si>
   <si>
-    <t>any</t>
-  </si>
-  <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>serve_no</t>
+  </si>
+  <si>
+    <t>client</t>
   </si>
   <si>
     <t>bgm</t>
@@ -277,12 +280,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1280,22 +1283,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="11.125" customWidth="1"/>
+    <col min="1" max="2" width="11.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
+    <row r="1" ht="15.6" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1314,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
+    <row r="2" ht="15.6" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1330,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
+    <row r="3" ht="15.6" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1338,64 +1341,80 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
+    <row r="4" ht="15.6" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
+    <row r="5" ht="15.6" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
@@ -1431,6 +1450,22 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excel/music_config.xlsx
+++ b/excel/music_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12780"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+只针对音效，不针对bgm
+填0就是无CD，重复触发时打断上一个
+填具体数字就是音效触发后（触发不是播放完）
+多长时间后再能再次触发
+单位秒</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -71,6 +97,9 @@
     <t>音效的类型</t>
   </si>
   <si>
+    <t>音效内置cd</t>
+  </si>
+  <si>
     <t>音效用途说明</t>
   </si>
   <si>
@@ -83,6 +112,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>cd</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
@@ -98,16 +130,88 @@
     <t>client</t>
   </si>
   <si>
-    <t>bgm</t>
-  </si>
-  <si>
-    <t>全局播放的bgm</t>
-  </si>
-  <si>
-    <t>anniu</t>
-  </si>
-  <si>
-    <t>所有按钮的点击音效</t>
+    <t>bgm_boss</t>
+  </si>
+  <si>
+    <t>进入打boss环节时的背景音乐</t>
+  </si>
+  <si>
+    <t>bgm_youxi</t>
+  </si>
+  <si>
+    <t>吃道具环节的背景音乐</t>
+  </si>
+  <si>
+    <t>bgm_jiemian</t>
+  </si>
+  <si>
+    <t>除上述两个环节以为所有界面的bgm</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>道具掉进黑洞时的音效</t>
+  </si>
+  <si>
+    <t>dianji</t>
+  </si>
+  <si>
+    <t>除了养成按钮和结算界面2个获得按钮以为的所有按钮的点击音效</t>
+  </si>
+  <si>
+    <t>dingdingding</t>
+  </si>
+  <si>
+    <t>角色变大之后即将攻击boss时播放</t>
+  </si>
+  <si>
+    <t>huanhu</t>
+  </si>
+  <si>
+    <t>角色胜利后播放欢呼动作时播放</t>
+  </si>
+  <si>
+    <t>qian</t>
+  </si>
+  <si>
+    <t>点击结算界面获得按钮时播放</t>
+  </si>
+  <si>
+    <t>quanji</t>
+  </si>
+  <si>
+    <t>角色攻击到boss时播放</t>
+  </si>
+  <si>
+    <t>shengji</t>
+  </si>
+  <si>
+    <t>属性养成升级和游戏内升级时播放</t>
+  </si>
+  <si>
+    <t>shengli</t>
+  </si>
+  <si>
+    <t>进入胜利结算界面时播放</t>
+  </si>
+  <si>
+    <t>shibai</t>
+  </si>
+  <si>
+    <t>进入失败结算界面时播放</t>
+  </si>
+  <si>
+    <t>bianda</t>
+  </si>
+  <si>
+    <t>角色变大时的音效</t>
+  </si>
+  <si>
+    <t>quanchi</t>
+  </si>
+  <si>
+    <t>所有道具掉给角色时播放</t>
   </si>
 </sst>
 </file>
@@ -280,12 +384,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -745,11 +849,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -757,7 +864,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1283,188 +1389,373 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="11.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="1" max="1" width="11.1333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="16.5" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="15.6" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" ht="15.6" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" ht="15.6" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/music_config.xlsx
+++ b/excel/music_config.xlsx
@@ -139,7 +139,7 @@
     <t>bgm_youxi</t>
   </si>
   <si>
-    <t>吃道具环节的背景音乐</t>
+    <t>游戏环节的背景音乐</t>
   </si>
   <si>
     <t>bgm_jiemian</t>
@@ -157,7 +157,7 @@
     <t>dianji</t>
   </si>
   <si>
-    <t>除了养成按钮和结算界面2个获得按钮以为的所有按钮的点击音效</t>
+    <t>所有按钮的点击音效</t>
   </si>
   <si>
     <t>dingdingding</t>
@@ -224,10 +224,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -715,154 +722,172 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1394,366 +1419,366 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.1333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11.1333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="59.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="16.5" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>0.5</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="9">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5">
+    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="A16" s="7">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="9">
         <v>2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5">
+    <row r="17" s="1" customFormat="1" spans="1:5">
+      <c r="A17" s="7">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="9">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="9">
         <v>0</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>41</v>
       </c>
     </row>

--- a/excel/music_config.xlsx
+++ b/excel/music_config.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>serve_no</t>
@@ -391,12 +394,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -852,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,16 +880,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1419,7 +1413,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1480,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -1490,38 +1484,38 @@
     </row>
     <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1531,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -1540,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1549,8 +1543,8 @@
       <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>16</v>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1558,18 +1552,18 @@
       <c r="D7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
+      <c r="B8" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1577,18 +1571,18 @@
       <c r="D8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1597,7 +1591,7 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1606,27 +1600,27 @@
       <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8">
         <v>2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
@@ -1635,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1645,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -1654,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1664,7 +1658,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4">
         <v>2</v>
@@ -1673,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1682,27 +1676,27 @@
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -1711,41 +1705,41 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="7">
         <v>11</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="8">
         <v>2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>0</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>35</v>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="7">
         <v>12</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8">
         <v>2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>37</v>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1753,7 +1747,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -1762,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1770,7 +1764,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -1779,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
